--- a/app/static/xls_template/DischList_Template.xlsx
+++ b/app/static/xls_template/DischList_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProject\Flask_web\app\xls_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProject\EDI_APP_TEST\app\static\xls_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524F2B0-E21B-4CD5-8FDC-9E31E5B8A104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79CA20E-B9E6-4B9E-9AD4-57DDBCF49A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F5E6C24-73B4-4E8B-A3E7-24E78EE6A89A}"/>
   </bookViews>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>OPS (3 LETTERS)</t>
-  </si>
-  <si>
-    <t>POL (6 LETTERS)</t>
-  </si>
-  <si>
-    <t>POD (6 LETTERS)</t>
   </si>
   <si>
     <t>FPOD (IF ANY)</t>
@@ -119,6 +113,12 @@
   </si>
   <si>
     <t>SEAL4</t>
+  </si>
+  <si>
+    <t>POL (5 LETTERS)</t>
+  </si>
+  <si>
+    <t>POD (5 LETTERS)</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB36EFB-5200-432B-9E6C-BC6C2EDF13CB}">
   <dimension ref="A1:AG159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,16 +1037,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1067,64 +1067,64 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">

--- a/app/static/xls_template/DischList_Template.xlsx
+++ b/app/static/xls_template/DischList_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProject\EDI_APP_TEST\app\static\xls_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79CA20E-B9E6-4B9E-9AD4-57DDBCF49A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6FB3AF-3264-4195-BFFE-A8250B9D4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F5E6C24-73B4-4E8B-A3E7-24E78EE6A89A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>SEQ</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>POD (5 LETTERS)</t>
+  </si>
+  <si>
+    <t>STOW CODE</t>
   </si>
 </sst>
 </file>
@@ -987,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB36EFB-5200-432B-9E6C-BC6C2EDF13CB}">
-  <dimension ref="A1:AG159"/>
+  <dimension ref="A1:AH159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,9 +1027,10 @@
     <col min="29" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1130,11 @@
       <c r="AG1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1146,7 +1153,7 @@
       <c r="X2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1165,7 +1172,7 @@
       <c r="X3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1184,7 +1191,7 @@
       <c r="X4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1203,7 +1210,7 @@
       <c r="X5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1222,7 +1229,7 @@
       <c r="X6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1241,7 +1248,7 @@
       <c r="X7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1258,9 +1265,8 @@
       <c r="Q8" s="1"/>
       <c r="T8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1279,7 +1285,7 @@
       <c r="X9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1298,7 +1304,7 @@
       <c r="X10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1317,7 +1323,7 @@
       <c r="X11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1336,7 +1342,7 @@
       <c r="X12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1355,7 +1361,7 @@
       <c r="X13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1374,7 +1380,7 @@
       <c r="X14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1393,7 +1399,7 @@
       <c r="X15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/app/static/xls_template/DischList_Template.xlsx
+++ b/app/static/xls_template/DischList_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProject\EDI_APP_TEST\app\static\xls_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6FB3AF-3264-4195-BFFE-A8250B9D4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C82E6BA-9BCB-405F-93D3-0702CE1E1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F5E6C24-73B4-4E8B-A3E7-24E78EE6A89A}"/>
   </bookViews>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB36EFB-5200-432B-9E6C-BC6C2EDF13CB}">
   <dimension ref="A1:AH159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,30 +1004,30 @@
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="51.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1056,82 +1056,82 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
@@ -1142,16 +1142,16 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1161,16 +1161,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -1180,16 +1180,16 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -1199,16 +1199,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -1218,16 +1218,16 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -1237,16 +1237,16 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -1256,15 +1256,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="X8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -1274,16 +1274,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -1293,16 +1293,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -1312,16 +1312,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="AF11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -1331,16 +1331,16 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -1350,16 +1350,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
@@ -1369,16 +1369,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -1388,16 +1388,16 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="AF15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
@@ -1407,18 +1407,18 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1426,18 +1426,18 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1445,18 +1445,18 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1464,18 +1464,18 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1483,18 +1483,18 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="AF20" s="1"/>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1502,18 +1502,18 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1521,18 +1521,18 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="AF22" s="1"/>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1540,18 +1540,18 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="AF23" s="1"/>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1559,18 +1559,18 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="AF24" s="1"/>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1578,18 +1578,18 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1597,18 +1597,18 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="AF26" s="1"/>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1616,18 +1616,18 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1635,18 +1635,18 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="AF28" s="1"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1654,18 +1654,18 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="AF29" s="1"/>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1673,18 +1673,18 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="AF30" s="1"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1692,18 +1692,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1711,18 +1711,18 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="AF32" s="1"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1730,18 +1730,18 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="AF33" s="1"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1749,18 +1749,18 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="M34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="AF34" s="1"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1768,18 +1768,18 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="M35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="AF35" s="1"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1787,18 +1787,18 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="AF36" s="1"/>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="AG36" s="1"/>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1806,18 +1806,18 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="M37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="AG37" s="1"/>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1825,18 +1825,18 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="M38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="AF38" s="1"/>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="AG38" s="1"/>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1844,18 +1844,18 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="M39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="AF39" s="1"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="AG39" s="1"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1863,18 +1863,18 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="M40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="AF40" s="1"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="AG40" s="1"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1882,18 +1882,18 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="M41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="AF41" s="1"/>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="AG41" s="1"/>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1901,18 +1901,18 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="AF42" s="1"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="AG42" s="1"/>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1920,18 +1920,18 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="AF43" s="1"/>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="AG43" s="1"/>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1939,18 +1939,18 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="M44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="AF44" s="1"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="AG44" s="1"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1958,18 +1958,18 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="M45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="AF45" s="1"/>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="AG45" s="1"/>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1977,18 +1977,18 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="M46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="AF46" s="1"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="AG46" s="1"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1996,18 +1996,18 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="M47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="AG47" s="1"/>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2015,18 +2015,18 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="AF48" s="1"/>
-    </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="AG48" s="1"/>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2034,18 +2034,18 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="AG49" s="1"/>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2053,18 +2053,18 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="M50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="AF50" s="1"/>
-    </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="AG50" s="1"/>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2072,18 +2072,18 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="M51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="AF51" s="1"/>
-    </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="AG51" s="1"/>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2091,18 +2091,18 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="AG52" s="1"/>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2110,18 +2110,18 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="M53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="AF53" s="1"/>
-    </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="AG53" s="1"/>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2129,18 +2129,18 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="M54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="AF54" s="1"/>
-    </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="AG54" s="1"/>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2148,18 +2148,18 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="M55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="AF55" s="1"/>
-    </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="AG55" s="1"/>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2167,18 +2167,18 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="M56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="AF56" s="1"/>
-    </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="AG56" s="1"/>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2186,18 +2186,18 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="M57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="AF57" s="1"/>
-    </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="AG57" s="1"/>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2205,18 +2205,18 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="M58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="AF58" s="1"/>
-    </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="AG58" s="1"/>
+    </row>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2224,18 +2224,18 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="N59" s="1"/>
+      <c r="M59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="AF59" s="1"/>
-    </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="AG59" s="1"/>
+    </row>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2243,18 +2243,18 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="M60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="AF60" s="1"/>
-    </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="AG60" s="1"/>
+    </row>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2262,18 +2262,18 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="AF61" s="1"/>
-    </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="AG61" s="1"/>
+    </row>
+    <row r="62" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2281,18 +2281,18 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="M62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="AF62" s="1"/>
-    </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="AG62" s="1"/>
+    </row>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2300,18 +2300,18 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="M63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="AF63" s="1"/>
-    </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="AG63" s="1"/>
+    </row>
+    <row r="64" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2319,18 +2319,18 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="M64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="AF64" s="1"/>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="AG64" s="1"/>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2338,18 +2338,18 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="M65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="AF65" s="1"/>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="AG65" s="1"/>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2357,18 +2357,18 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="AF66" s="1"/>
-    </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="AG66" s="1"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2376,18 +2376,18 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="AF67" s="1"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="AG67" s="1"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2395,18 +2395,18 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="M68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="AF68" s="1"/>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="AG68" s="1"/>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2414,18 +2414,18 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="M69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="AF69" s="1"/>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="AG69" s="1"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2433,18 +2433,18 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="AF70" s="1"/>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="AG70" s="1"/>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2452,18 +2452,18 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="M71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="AF71" s="1"/>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="AG71" s="1"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2471,18 +2471,18 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="M72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="AF72" s="1"/>
-    </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="AG72" s="1"/>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2490,18 +2490,18 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="M73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="AF73" s="1"/>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="AG73" s="1"/>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2509,18 +2509,18 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="M74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="AF74" s="1"/>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="AG74" s="1"/>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2528,18 +2528,18 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="M75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="AF75" s="1"/>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="AG75" s="1"/>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2547,18 +2547,18 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="M76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="AF76" s="1"/>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="AG76" s="1"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2566,18 +2566,18 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="M77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="AF77" s="1"/>
-    </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="AG77" s="1"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2585,18 +2585,18 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="M78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="AF78" s="1"/>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="AG78" s="1"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2604,18 +2604,18 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="N79" s="1"/>
+      <c r="M79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="AF79" s="1"/>
-    </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="AG79" s="1"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2623,18 +2623,18 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="M80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="AF80" s="1"/>
-    </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="AG80" s="1"/>
+    </row>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2642,18 +2642,18 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="M81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="AF81" s="1"/>
-    </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="AG81" s="1"/>
+    </row>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2661,18 +2661,18 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="M82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="AF82" s="1"/>
-    </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="AG82" s="1"/>
+    </row>
+    <row r="83" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2680,18 +2680,18 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="N83" s="1"/>
+      <c r="M83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="AF83" s="1"/>
-    </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="AG83" s="1"/>
+    </row>
+    <row r="84" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2699,18 +2699,18 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="M84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="AF84" s="1"/>
-    </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="AG84" s="1"/>
+    </row>
+    <row r="85" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2718,18 +2718,18 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="M85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="AF85" s="1"/>
-    </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="AG85" s="1"/>
+    </row>
+    <row r="86" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2737,18 +2737,18 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="M86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="AF86" s="1"/>
-    </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="AG86" s="1"/>
+    </row>
+    <row r="87" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2756,18 +2756,18 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="M87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="AF87" s="1"/>
-    </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="AG87" s="1"/>
+    </row>
+    <row r="88" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2775,18 +2775,18 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="M88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="AF88" s="1"/>
-    </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="AG88" s="1"/>
+    </row>
+    <row r="89" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2794,18 +2794,18 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="AF89" s="1"/>
-    </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="AG89" s="1"/>
+    </row>
+    <row r="90" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2813,18 +2813,18 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="M90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="AF90" s="1"/>
-    </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="AG90" s="1"/>
+    </row>
+    <row r="91" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2832,18 +2832,18 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="M91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="AF91" s="1"/>
-    </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="AG91" s="1"/>
+    </row>
+    <row r="92" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2851,18 +2851,18 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="M92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="AF92" s="1"/>
-    </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="AG92" s="1"/>
+    </row>
+    <row r="93" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2870,18 +2870,18 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="M93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="AF93" s="1"/>
-    </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="AG93" s="1"/>
+    </row>
+    <row r="94" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2889,18 +2889,18 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="M94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="AF94" s="1"/>
-    </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="AG94" s="1"/>
+    </row>
+    <row r="95" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2908,18 +2908,18 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="M95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="AF95" s="1"/>
-    </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="AG95" s="1"/>
+    </row>
+    <row r="96" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2927,18 +2927,18 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="M96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="AF96" s="1"/>
-    </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="AG96" s="1"/>
+    </row>
+    <row r="97" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2946,18 +2946,18 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="M97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="AF97" s="1"/>
-    </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="AG97" s="1"/>
+    </row>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2965,18 +2965,18 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="AF98" s="1"/>
-    </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="AG98" s="1"/>
+    </row>
+    <row r="99" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2984,18 +2984,18 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="M99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="AF99" s="1"/>
-    </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="AG99" s="1"/>
+    </row>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3003,18 +3003,18 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="M100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="AF100" s="1"/>
-    </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="AG100" s="1"/>
+    </row>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3022,18 +3022,18 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="M101" s="1"/>
       <c r="O101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="AF101" s="1"/>
-    </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="AG101" s="1"/>
+    </row>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3041,18 +3041,18 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="M102" s="1"/>
       <c r="O102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="AF102" s="1"/>
-    </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="AG102" s="1"/>
+    </row>
+    <row r="103" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3060,18 +3060,18 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="M103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="X103" s="1"/>
-      <c r="AF103" s="1"/>
-    </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="AG103" s="1"/>
+    </row>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3079,18 +3079,18 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="N104" s="1"/>
+      <c r="M104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="X104" s="1"/>
-      <c r="AF104" s="1"/>
-    </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="AG104" s="1"/>
+    </row>
+    <row r="105" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3098,18 +3098,18 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="N105" s="1"/>
+      <c r="M105" s="1"/>
       <c r="O105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="X105" s="1"/>
-      <c r="AF105" s="1"/>
-    </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="AG105" s="1"/>
+    </row>
+    <row r="106" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3117,18 +3117,18 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-      <c r="N106" s="1"/>
+      <c r="M106" s="1"/>
       <c r="O106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="X106" s="1"/>
-      <c r="AF106" s="1"/>
-    </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="AG106" s="1"/>
+    </row>
+    <row r="107" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3136,18 +3136,18 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="N107" s="1"/>
+      <c r="M107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="AF107" s="1"/>
-    </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="AG107" s="1"/>
+    </row>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3155,18 +3155,18 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="M108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="X108" s="1"/>
-      <c r="AF108" s="1"/>
-    </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="AG108" s="1"/>
+    </row>
+    <row r="109" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3174,18 +3174,18 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="N109" s="1"/>
+      <c r="M109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="AF109" s="1"/>
-    </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="AG109" s="1"/>
+    </row>
+    <row r="110" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3193,18 +3193,18 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
-      <c r="N110" s="1"/>
+      <c r="M110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="X110" s="1"/>
-      <c r="AF110" s="1"/>
-    </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="AG110" s="1"/>
+    </row>
+    <row r="111" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3212,18 +3212,18 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="N111" s="1"/>
+      <c r="M111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="X111" s="1"/>
-      <c r="AF111" s="1"/>
-    </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="AG111" s="1"/>
+    </row>
+    <row r="112" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3231,18 +3231,18 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="N112" s="1"/>
+      <c r="M112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="X112" s="1"/>
-      <c r="AF112" s="1"/>
-    </row>
-    <row r="113" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="AG112" s="1"/>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3250,18 +3250,18 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="M113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="X113" s="1"/>
-      <c r="AF113" s="1"/>
-    </row>
-    <row r="114" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="AG113" s="1"/>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3269,18 +3269,18 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="N114" s="1"/>
+      <c r="M114" s="1"/>
       <c r="O114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="AF114" s="1"/>
-    </row>
-    <row r="115" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="AG114" s="1"/>
+    </row>
+    <row r="115" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3288,18 +3288,18 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="N115" s="1"/>
+      <c r="M115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="X115" s="1"/>
-      <c r="AF115" s="1"/>
-    </row>
-    <row r="116" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="AG115" s="1"/>
+    </row>
+    <row r="116" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3307,18 +3307,18 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
-      <c r="N116" s="1"/>
+      <c r="M116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="X116" s="1"/>
-      <c r="AF116" s="1"/>
-    </row>
-    <row r="117" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="AG116" s="1"/>
+    </row>
+    <row r="117" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3326,18 +3326,18 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
-      <c r="N117" s="1"/>
+      <c r="M117" s="1"/>
       <c r="O117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="X117" s="1"/>
-      <c r="AF117" s="1"/>
-    </row>
-    <row r="118" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="AG117" s="1"/>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3345,18 +3345,18 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
-      <c r="N118" s="1"/>
+      <c r="M118" s="1"/>
       <c r="O118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="X118" s="1"/>
-      <c r="AF118" s="1"/>
-    </row>
-    <row r="119" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="AG118" s="1"/>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3364,18 +3364,18 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
-      <c r="N119" s="1"/>
+      <c r="M119" s="1"/>
       <c r="O119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="X119" s="1"/>
-      <c r="AF119" s="1"/>
-    </row>
-    <row r="120" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="AG119" s="1"/>
+    </row>
+    <row r="120" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3383,18 +3383,18 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
-      <c r="N120" s="1"/>
+      <c r="M120" s="1"/>
       <c r="O120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="X120" s="1"/>
-      <c r="AF120" s="1"/>
-    </row>
-    <row r="121" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="AG120" s="1"/>
+    </row>
+    <row r="121" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3402,18 +3402,18 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="M121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="X121" s="1"/>
-      <c r="AF121" s="1"/>
-    </row>
-    <row r="122" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="AG121" s="1"/>
+    </row>
+    <row r="122" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3421,18 +3421,18 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-      <c r="N122" s="1"/>
+      <c r="M122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="AF122" s="1"/>
-    </row>
-    <row r="123" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="AG122" s="1"/>
+    </row>
+    <row r="123" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3440,18 +3440,18 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
-      <c r="N123" s="1"/>
+      <c r="M123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="X123" s="1"/>
-      <c r="AF123" s="1"/>
-    </row>
-    <row r="124" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="AG123" s="1"/>
+    </row>
+    <row r="124" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3459,18 +3459,18 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
-      <c r="N124" s="1"/>
+      <c r="M124" s="1"/>
       <c r="O124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="X124" s="1"/>
-      <c r="AF124" s="1"/>
-    </row>
-    <row r="125" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="AG124" s="1"/>
+    </row>
+    <row r="125" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3478,18 +3478,18 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
-      <c r="N125" s="1"/>
+      <c r="M125" s="1"/>
       <c r="O125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="AF125" s="1"/>
-    </row>
-    <row r="126" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="AG125" s="1"/>
+    </row>
+    <row r="126" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3497,18 +3497,18 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
-      <c r="N126" s="1"/>
+      <c r="M126" s="1"/>
       <c r="O126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="X126" s="1"/>
-      <c r="AF126" s="1"/>
-    </row>
-    <row r="127" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="AG126" s="1"/>
+    </row>
+    <row r="127" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3516,18 +3516,18 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
-      <c r="N127" s="1"/>
+      <c r="M127" s="1"/>
       <c r="O127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="X127" s="1"/>
-      <c r="AF127" s="1"/>
-    </row>
-    <row r="128" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="AG127" s="1"/>
+    </row>
+    <row r="128" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3535,18 +3535,18 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
-      <c r="N128" s="1"/>
+      <c r="M128" s="1"/>
       <c r="O128" s="1"/>
-      <c r="Q128" s="1"/>
-      <c r="T128" s="1"/>
-      <c r="X128" s="1"/>
-      <c r="AF128" s="1"/>
-    </row>
-    <row r="129" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="AG128" s="1"/>
+    </row>
+    <row r="129" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3554,18 +3554,18 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-      <c r="N129" s="1"/>
+      <c r="M129" s="1"/>
       <c r="O129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="T129" s="1"/>
-      <c r="X129" s="1"/>
-      <c r="AF129" s="1"/>
-    </row>
-    <row r="130" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="AG129" s="1"/>
+    </row>
+    <row r="130" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3573,18 +3573,18 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
-      <c r="N130" s="1"/>
+      <c r="M130" s="1"/>
       <c r="O130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="T130" s="1"/>
-      <c r="X130" s="1"/>
-      <c r="AF130" s="1"/>
-    </row>
-    <row r="131" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="AG130" s="1"/>
+    </row>
+    <row r="131" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3592,18 +3592,18 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
-      <c r="N131" s="1"/>
+      <c r="M131" s="1"/>
       <c r="O131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="T131" s="1"/>
-      <c r="X131" s="1"/>
-      <c r="AF131" s="1"/>
-    </row>
-    <row r="132" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="AG131" s="1"/>
+    </row>
+    <row r="132" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3611,18 +3611,18 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
-      <c r="N132" s="1"/>
+      <c r="M132" s="1"/>
       <c r="O132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="AF132" s="1"/>
-    </row>
-    <row r="133" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="AG132" s="1"/>
+    </row>
+    <row r="133" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3630,18 +3630,18 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
-      <c r="N133" s="1"/>
+      <c r="M133" s="1"/>
       <c r="O133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="AF133" s="1"/>
-    </row>
-    <row r="134" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="AG133" s="1"/>
+    </row>
+    <row r="134" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3649,18 +3649,18 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
-      <c r="N134" s="1"/>
+      <c r="M134" s="1"/>
       <c r="O134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="X134" s="1"/>
-      <c r="AF134" s="1"/>
-    </row>
-    <row r="135" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="AG134" s="1"/>
+    </row>
+    <row r="135" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3668,18 +3668,18 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
-      <c r="N135" s="1"/>
+      <c r="M135" s="1"/>
       <c r="O135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="X135" s="1"/>
-      <c r="AF135" s="1"/>
-    </row>
-    <row r="136" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="AG135" s="1"/>
+    </row>
+    <row r="136" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3687,18 +3687,18 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
-      <c r="N136" s="1"/>
+      <c r="M136" s="1"/>
       <c r="O136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="X136" s="1"/>
-      <c r="AF136" s="1"/>
-    </row>
-    <row r="137" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="AG136" s="1"/>
+    </row>
+    <row r="137" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3706,18 +3706,18 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
-      <c r="N137" s="1"/>
+      <c r="M137" s="1"/>
       <c r="O137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="X137" s="1"/>
-      <c r="AF137" s="1"/>
-    </row>
-    <row r="138" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="AG137" s="1"/>
+    </row>
+    <row r="138" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3725,18 +3725,18 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-      <c r="N138" s="1"/>
+      <c r="M138" s="1"/>
       <c r="O138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="X138" s="1"/>
-      <c r="AF138" s="1"/>
-    </row>
-    <row r="139" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="AG138" s="1"/>
+    </row>
+    <row r="139" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3744,18 +3744,18 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
-      <c r="N139" s="1"/>
+      <c r="M139" s="1"/>
       <c r="O139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="T139" s="1"/>
-      <c r="X139" s="1"/>
-      <c r="AF139" s="1"/>
-    </row>
-    <row r="140" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="AG139" s="1"/>
+    </row>
+    <row r="140" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3763,18 +3763,18 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
-      <c r="N140" s="1"/>
+      <c r="M140" s="1"/>
       <c r="O140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="X140" s="1"/>
-      <c r="AF140" s="1"/>
-    </row>
-    <row r="141" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="AG140" s="1"/>
+    </row>
+    <row r="141" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3782,18 +3782,18 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
-      <c r="N141" s="1"/>
+      <c r="M141" s="1"/>
       <c r="O141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="T141" s="1"/>
-      <c r="X141" s="1"/>
-      <c r="AF141" s="1"/>
-    </row>
-    <row r="142" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="AG141" s="1"/>
+    </row>
+    <row r="142" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3801,18 +3801,18 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
-      <c r="N142" s="1"/>
+      <c r="M142" s="1"/>
       <c r="O142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="X142" s="1"/>
-      <c r="AF142" s="1"/>
-    </row>
-    <row r="143" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="AG142" s="1"/>
+    </row>
+    <row r="143" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3820,18 +3820,18 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
-      <c r="N143" s="1"/>
+      <c r="M143" s="1"/>
       <c r="O143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="X143" s="1"/>
-      <c r="AF143" s="1"/>
-    </row>
-    <row r="144" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="AG143" s="1"/>
+    </row>
+    <row r="144" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3839,18 +3839,18 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
-      <c r="N144" s="1"/>
+      <c r="M144" s="1"/>
       <c r="O144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="AF144" s="1"/>
-    </row>
-    <row r="145" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="AG144" s="1"/>
+    </row>
+    <row r="145" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3858,18 +3858,18 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
-      <c r="N145" s="1"/>
+      <c r="M145" s="1"/>
       <c r="O145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="X145" s="1"/>
-      <c r="AF145" s="1"/>
-    </row>
-    <row r="146" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="AG145" s="1"/>
+    </row>
+    <row r="146" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3877,18 +3877,18 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-      <c r="N146" s="1"/>
+      <c r="M146" s="1"/>
       <c r="O146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="X146" s="1"/>
-      <c r="AF146" s="1"/>
-    </row>
-    <row r="147" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="AG146" s="1"/>
+    </row>
+    <row r="147" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3896,18 +3896,18 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
-      <c r="N147" s="1"/>
+      <c r="M147" s="1"/>
       <c r="O147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="AF147" s="1"/>
-    </row>
-    <row r="148" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="AG147" s="1"/>
+    </row>
+    <row r="148" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3915,18 +3915,18 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
-      <c r="N148" s="1"/>
+      <c r="M148" s="1"/>
       <c r="O148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="X148" s="1"/>
-      <c r="AF148" s="1"/>
-    </row>
-    <row r="149" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="AG148" s="1"/>
+    </row>
+    <row r="149" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3934,18 +3934,18 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
-      <c r="N149" s="1"/>
+      <c r="M149" s="1"/>
       <c r="O149" s="1"/>
-      <c r="Q149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="X149" s="1"/>
-      <c r="AF149" s="1"/>
-    </row>
-    <row r="150" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="Y149" s="1"/>
+      <c r="AG149" s="1"/>
+    </row>
+    <row r="150" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3953,18 +3953,18 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
-      <c r="N150" s="1"/>
+      <c r="M150" s="1"/>
       <c r="O150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="AF150" s="1"/>
-    </row>
-    <row r="151" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="AG150" s="1"/>
+    </row>
+    <row r="151" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3972,18 +3972,18 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
-      <c r="N151" s="1"/>
+      <c r="M151" s="1"/>
       <c r="O151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="X151" s="1"/>
-      <c r="AF151" s="1"/>
-    </row>
-    <row r="152" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="AG151" s="1"/>
+    </row>
+    <row r="152" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3991,18 +3991,18 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
-      <c r="N152" s="1"/>
+      <c r="M152" s="1"/>
       <c r="O152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="X152" s="1"/>
-      <c r="AF152" s="1"/>
-    </row>
-    <row r="153" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="AG152" s="1"/>
+    </row>
+    <row r="153" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4010,18 +4010,18 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
-      <c r="N153" s="1"/>
+      <c r="M153" s="1"/>
       <c r="O153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="X153" s="1"/>
-      <c r="AF153" s="1"/>
-    </row>
-    <row r="154" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="AG153" s="1"/>
+    </row>
+    <row r="154" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4029,18 +4029,18 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
-      <c r="N154" s="1"/>
+      <c r="M154" s="1"/>
       <c r="O154" s="1"/>
-      <c r="Q154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="X154" s="1"/>
-      <c r="AF154" s="1"/>
-    </row>
-    <row r="155" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="Y154" s="1"/>
+      <c r="AG154" s="1"/>
+    </row>
+    <row r="155" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4048,18 +4048,18 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
-      <c r="N155" s="1"/>
+      <c r="M155" s="1"/>
       <c r="O155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="X155" s="1"/>
-      <c r="AF155" s="1"/>
-    </row>
-    <row r="156" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="Y155" s="1"/>
+      <c r="AG155" s="1"/>
+    </row>
+    <row r="156" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4067,18 +4067,18 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
-      <c r="N156" s="1"/>
+      <c r="M156" s="1"/>
       <c r="O156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="X156" s="1"/>
-      <c r="AF156" s="1"/>
-    </row>
-    <row r="157" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="Y156" s="1"/>
+      <c r="AG156" s="1"/>
+    </row>
+    <row r="157" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4086,18 +4086,18 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
-      <c r="N157" s="1"/>
+      <c r="M157" s="1"/>
       <c r="O157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="X157" s="1"/>
-      <c r="AF157" s="1"/>
-    </row>
-    <row r="158" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="AG157" s="1"/>
+    </row>
+    <row r="158" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4105,18 +4105,18 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
-      <c r="N158" s="1"/>
+      <c r="M158" s="1"/>
       <c r="O158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="X158" s="1"/>
-      <c r="AF158" s="1"/>
-    </row>
-    <row r="159" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="AG158" s="1"/>
+    </row>
+    <row r="159" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4124,16 +4124,16 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-      <c r="N159" s="1"/>
+      <c r="M159" s="1"/>
       <c r="O159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="X159" s="1"/>
-      <c r="AF159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="AG159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/static/xls_template/DischList_Template.xlsx
+++ b/app/static/xls_template/DischList_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProject\EDI_APP_TEST\app\static\xls_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C82E6BA-9BCB-405F-93D3-0702CE1E1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1505AE-D7FC-4F67-834F-698F4177ADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F5E6C24-73B4-4E8B-A3E7-24E78EE6A89A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>SEQ</t>
   </si>
@@ -121,6 +121,12 @@
     <t>POD (5 LETTERS)</t>
   </si>
   <si>
+    <t>SHIPPER</t>
+  </si>
+  <si>
+    <t>CONSIGNEE</t>
+  </si>
+  <si>
     <t>STOW CODE</t>
   </si>
 </sst>
@@ -128,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +275,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -612,8 +624,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -990,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB36EFB-5200-432B-9E6C-BC6C2EDF13CB}">
-  <dimension ref="A1:AH159"/>
+  <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1017,7 @@
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
@@ -1028,9 +1041,11 @@
     <col min="30" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1133,3007 +1148,4900 @@
       <c r="AH1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="Y2" s="2"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="Y3" s="2"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="Y5" s="2"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="Y6" s="2"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="Y7" s="2"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="Y9" s="2"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="Y10" s="2"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="Y11" s="2"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="Y12" s="2"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="Y13" s="2"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="Y14" s="2"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="Y15" s="2"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="Y16" s="2"/>
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="Y17" s="2"/>
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="Y18" s="2"/>
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="Y19" s="2"/>
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="Y20" s="2"/>
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="Y21" s="2"/>
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="Y22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="Y22" s="2"/>
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="Y23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="Y23" s="2"/>
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="Y24" s="2"/>
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="Y25" s="2"/>
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="Y26" s="2"/>
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="Y27" s="2"/>
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="Y28" s="2"/>
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="Y29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="Y29" s="2"/>
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="Y30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="Y30" s="2"/>
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="Y31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="Y31" s="2"/>
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="Y32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="Y32" s="2"/>
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="Y33" s="2"/>
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="Y34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="Y34" s="2"/>
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="Y35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="Y35" s="2"/>
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="Y36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="Y36" s="2"/>
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="Y37" s="2"/>
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="Y38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="Y38" s="2"/>
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="Y39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="Y39" s="2"/>
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="Y40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="Y40" s="2"/>
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="Y41" s="2"/>
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="Y42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="Y42" s="2"/>
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="Y43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="Y43" s="2"/>
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="Y44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="Y44" s="2"/>
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
       <c r="M45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="Y45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="Y45" s="2"/>
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="Y46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="Y46" s="2"/>
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="Y47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="Y47" s="2"/>
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="Y48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="Y48" s="2"/>
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
       <c r="M49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="Y49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="Y49" s="2"/>
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="Y50" s="2"/>
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="Y51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="Y51" s="2"/>
       <c r="AG51" s="1"/>
     </row>
     <row r="52" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="Y52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="Y52" s="2"/>
       <c r="AG52" s="1"/>
     </row>
     <row r="53" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
       <c r="M53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="Y53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="Y53" s="2"/>
       <c r="AG53" s="1"/>
     </row>
     <row r="54" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="Y54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="Y54" s="2"/>
       <c r="AG54" s="1"/>
     </row>
     <row r="55" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="Y55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="Y55" s="2"/>
       <c r="AG55" s="1"/>
     </row>
     <row r="56" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="Y56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="Y56" s="2"/>
       <c r="AG56" s="1"/>
     </row>
     <row r="57" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="Y57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="Y57" s="2"/>
       <c r="AG57" s="1"/>
     </row>
     <row r="58" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
       <c r="M58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="Y58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="Y58" s="2"/>
       <c r="AG58" s="1"/>
     </row>
     <row r="59" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
       <c r="M59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="Y59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="Y59" s="2"/>
       <c r="AG59" s="1"/>
     </row>
     <row r="60" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
       <c r="M60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="Y60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="Y60" s="2"/>
       <c r="AG60" s="1"/>
     </row>
     <row r="61" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
       <c r="M61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="Y61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="Y61" s="2"/>
       <c r="AG61" s="1"/>
     </row>
     <row r="62" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
       <c r="M62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="Y62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="Y62" s="2"/>
       <c r="AG62" s="1"/>
     </row>
     <row r="63" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
       <c r="M63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="Y63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="Y63" s="2"/>
       <c r="AG63" s="1"/>
     </row>
     <row r="64" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
       <c r="M64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="Y64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="Y64" s="2"/>
       <c r="AG64" s="1"/>
     </row>
     <row r="65" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
       <c r="M65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="Y65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="Y65" s="2"/>
       <c r="AG65" s="1"/>
     </row>
     <row r="66" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="Y66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="Y66" s="2"/>
       <c r="AG66" s="1"/>
     </row>
     <row r="67" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
       <c r="M67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="Y67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="Y67" s="2"/>
       <c r="AG67" s="1"/>
     </row>
     <row r="68" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="Y68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="Y68" s="2"/>
       <c r="AG68" s="1"/>
     </row>
     <row r="69" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="Y69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="Y69" s="2"/>
       <c r="AG69" s="1"/>
     </row>
     <row r="70" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
       <c r="M70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="Y70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="Y70" s="2"/>
       <c r="AG70" s="1"/>
     </row>
     <row r="71" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
       <c r="M71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="Y71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="Y71" s="2"/>
       <c r="AG71" s="1"/>
     </row>
     <row r="72" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
       <c r="M72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="Y72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="Y72" s="2"/>
       <c r="AG72" s="1"/>
     </row>
     <row r="73" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
       <c r="M73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="Y73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="Y73" s="2"/>
       <c r="AG73" s="1"/>
     </row>
     <row r="74" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
       <c r="M74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="Y74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="Y74" s="2"/>
       <c r="AG74" s="1"/>
     </row>
     <row r="75" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
       <c r="M75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="Y75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="Y75" s="2"/>
       <c r="AG75" s="1"/>
     </row>
     <row r="76" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
       <c r="M76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="Y76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="Y76" s="2"/>
       <c r="AG76" s="1"/>
     </row>
     <row r="77" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
       <c r="M77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="Y77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="Y77" s="2"/>
       <c r="AG77" s="1"/>
     </row>
     <row r="78" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
       <c r="M78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="Y78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="Y78" s="2"/>
       <c r="AG78" s="1"/>
     </row>
     <row r="79" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
       <c r="M79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="Y79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="Y79" s="2"/>
       <c r="AG79" s="1"/>
     </row>
     <row r="80" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
       <c r="M80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="Y80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="Y80" s="2"/>
       <c r="AG80" s="1"/>
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
       <c r="M81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="Y81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="Y81" s="2"/>
       <c r="AG81" s="1"/>
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
       <c r="M82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="Y82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="Y82" s="2"/>
       <c r="AG82" s="1"/>
     </row>
     <row r="83" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
       <c r="M83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="Y83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="Y83" s="2"/>
       <c r="AG83" s="1"/>
     </row>
     <row r="84" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
       <c r="M84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="Y84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="Y84" s="2"/>
       <c r="AG84" s="1"/>
     </row>
     <row r="85" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
       <c r="M85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="Y85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="Y85" s="2"/>
       <c r="AG85" s="1"/>
     </row>
     <row r="86" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
       <c r="M86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="Y86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="Y86" s="2"/>
       <c r="AG86" s="1"/>
     </row>
     <row r="87" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
       <c r="M87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="Y87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="Y87" s="2"/>
       <c r="AG87" s="1"/>
     </row>
     <row r="88" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
       <c r="M88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="Y88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="Y88" s="2"/>
       <c r="AG88" s="1"/>
     </row>
     <row r="89" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
       <c r="M89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="Y89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="Y89" s="2"/>
       <c r="AG89" s="1"/>
     </row>
     <row r="90" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
       <c r="M90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="Y90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="Y90" s="2"/>
       <c r="AG90" s="1"/>
     </row>
     <row r="91" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
       <c r="M91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="Y91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="Y91" s="2"/>
       <c r="AG91" s="1"/>
     </row>
     <row r="92" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
       <c r="M92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="Y92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="Y92" s="2"/>
       <c r="AG92" s="1"/>
     </row>
     <row r="93" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
       <c r="M93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="Y93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="Y93" s="2"/>
       <c r="AG93" s="1"/>
     </row>
     <row r="94" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
       <c r="M94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="Y94" s="2"/>
       <c r="AG94" s="1"/>
     </row>
     <row r="95" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
       <c r="M95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="Y95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="Y95" s="2"/>
       <c r="AG95" s="1"/>
     </row>
     <row r="96" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
       <c r="M96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="Y96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="Y96" s="2"/>
       <c r="AG96" s="1"/>
     </row>
     <row r="97" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
       <c r="M97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="Y97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="Y97" s="2"/>
       <c r="AG97" s="1"/>
     </row>
     <row r="98" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
       <c r="M98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="Y98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="Y98" s="2"/>
       <c r="AG98" s="1"/>
     </row>
     <row r="99" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
       <c r="M99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="Y99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="Y99" s="2"/>
       <c r="AG99" s="1"/>
     </row>
     <row r="100" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
       <c r="M100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="Y100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="Y100" s="2"/>
       <c r="AG100" s="1"/>
     </row>
     <row r="101" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
       <c r="M101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="Y101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="Y101" s="2"/>
       <c r="AG101" s="1"/>
     </row>
     <row r="102" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
       <c r="M102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="Y102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="Y102" s="2"/>
       <c r="AG102" s="1"/>
     </row>
     <row r="103" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
       <c r="M103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="Y103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="Y103" s="2"/>
       <c r="AG103" s="1"/>
     </row>
     <row r="104" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
       <c r="M104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="Y104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="Y104" s="2"/>
       <c r="AG104" s="1"/>
     </row>
     <row r="105" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
       <c r="M105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="Y105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="Y105" s="2"/>
       <c r="AG105" s="1"/>
     </row>
     <row r="106" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
       <c r="M106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="Y106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="Y106" s="2"/>
       <c r="AG106" s="1"/>
     </row>
     <row r="107" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
       <c r="M107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="Y107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="Y107" s="2"/>
       <c r="AG107" s="1"/>
     </row>
     <row r="108" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
       <c r="M108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="Y108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="Y108" s="2"/>
       <c r="AG108" s="1"/>
     </row>
     <row r="109" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
       <c r="M109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="Y109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="Y109" s="2"/>
       <c r="AG109" s="1"/>
     </row>
     <row r="110" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
       <c r="M110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="Y110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="Y110" s="2"/>
       <c r="AG110" s="1"/>
     </row>
     <row r="111" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
       <c r="M111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="Y111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="Y111" s="2"/>
       <c r="AG111" s="1"/>
     </row>
     <row r="112" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
       <c r="H112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
       <c r="M112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="Y112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="Y112" s="2"/>
       <c r="AG112" s="1"/>
     </row>
     <row r="113" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
       <c r="M113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="Y113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="Y113" s="2"/>
       <c r="AG113" s="1"/>
     </row>
     <row r="114" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
       <c r="M114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="Y114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="Y114" s="2"/>
       <c r="AG114" s="1"/>
     </row>
     <row r="115" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
       <c r="M115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="Y115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="Y115" s="2"/>
       <c r="AG115" s="1"/>
     </row>
     <row r="116" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
       <c r="H116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
       <c r="M116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="Y116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="Y116" s="2"/>
       <c r="AG116" s="1"/>
     </row>
     <row r="117" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
       <c r="M117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="Y117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="Y117" s="2"/>
       <c r="AG117" s="1"/>
     </row>
     <row r="118" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
       <c r="M118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="Y118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="Y118" s="2"/>
       <c r="AG118" s="1"/>
     </row>
     <row r="119" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
       <c r="M119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="Y119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="Y119" s="2"/>
       <c r="AG119" s="1"/>
     </row>
     <row r="120" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
       <c r="M120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="Y120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="Y120" s="2"/>
       <c r="AG120" s="1"/>
     </row>
     <row r="121" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
       <c r="M121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="Y121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="Y121" s="2"/>
       <c r="AG121" s="1"/>
     </row>
     <row r="122" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
       <c r="M122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="Y122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="Y122" s="2"/>
       <c r="AG122" s="1"/>
     </row>
     <row r="123" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
       <c r="M123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="Y123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="Y123" s="2"/>
       <c r="AG123" s="1"/>
     </row>
     <row r="124" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
       <c r="M124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="Y124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="Y124" s="2"/>
       <c r="AG124" s="1"/>
     </row>
     <row r="125" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
       <c r="M125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="Y125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="Y125" s="2"/>
       <c r="AG125" s="1"/>
     </row>
     <row r="126" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
       <c r="M126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="Y126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="Y126" s="2"/>
       <c r="AG126" s="1"/>
     </row>
     <row r="127" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
       <c r="H127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
       <c r="M127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="Y127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="Y127" s="2"/>
       <c r="AG127" s="1"/>
     </row>
     <row r="128" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
       <c r="M128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="R128" s="1"/>
-      <c r="U128" s="1"/>
-      <c r="Y128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="Y128" s="2"/>
       <c r="AG128" s="1"/>
     </row>
     <row r="129" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
       <c r="M129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="Y129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="Y129" s="2"/>
       <c r="AG129" s="1"/>
     </row>
     <row r="130" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
       <c r="M130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="R130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="Y130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="Y130" s="2"/>
       <c r="AG130" s="1"/>
     </row>
     <row r="131" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
       <c r="M131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="R131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="Y131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="Y131" s="2"/>
       <c r="AG131" s="1"/>
     </row>
     <row r="132" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
       <c r="H132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
       <c r="M132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="Y132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="Y132" s="2"/>
       <c r="AG132" s="1"/>
     </row>
     <row r="133" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
       <c r="H133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
       <c r="M133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="Y133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="Y133" s="2"/>
       <c r="AG133" s="1"/>
     </row>
     <row r="134" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
       <c r="H134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
       <c r="M134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="U134" s="1"/>
-      <c r="Y134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="Y134" s="2"/>
       <c r="AG134" s="1"/>
     </row>
     <row r="135" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
       <c r="H135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
       <c r="M135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="Y135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="Y135" s="2"/>
       <c r="AG135" s="1"/>
     </row>
     <row r="136" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
       <c r="H136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
       <c r="M136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="U136" s="1"/>
-      <c r="Y136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="Y136" s="2"/>
       <c r="AG136" s="1"/>
     </row>
     <row r="137" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
       <c r="H137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
       <c r="M137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="Y137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="Y137" s="2"/>
       <c r="AG137" s="1"/>
     </row>
     <row r="138" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
       <c r="H138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
       <c r="M138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="Y138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="Y138" s="2"/>
       <c r="AG138" s="1"/>
     </row>
     <row r="139" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
       <c r="M139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="R139" s="1"/>
-      <c r="U139" s="1"/>
-      <c r="Y139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="Y139" s="2"/>
       <c r="AG139" s="1"/>
     </row>
     <row r="140" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
       <c r="H140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
       <c r="M140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="Y140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="Y140" s="2"/>
       <c r="AG140" s="1"/>
     </row>
     <row r="141" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
       <c r="M141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="R141" s="1"/>
-      <c r="U141" s="1"/>
-      <c r="Y141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="Y141" s="2"/>
       <c r="AG141" s="1"/>
     </row>
     <row r="142" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
       <c r="M142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="U142" s="1"/>
-      <c r="Y142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="Y142" s="2"/>
       <c r="AG142" s="1"/>
     </row>
     <row r="143" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
       <c r="M143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="Y143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="Y143" s="2"/>
       <c r="AG143" s="1"/>
     </row>
     <row r="144" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
       <c r="M144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="Y144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="Y144" s="2"/>
       <c r="AG144" s="1"/>
     </row>
     <row r="145" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
       <c r="M145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="U145" s="1"/>
-      <c r="Y145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="Y145" s="2"/>
       <c r="AG145" s="1"/>
     </row>
     <row r="146" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
       <c r="H146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
       <c r="M146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="Y146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="Y146" s="2"/>
       <c r="AG146" s="1"/>
     </row>
     <row r="147" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
       <c r="M147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="Y147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="Y147" s="2"/>
       <c r="AG147" s="1"/>
     </row>
     <row r="148" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
       <c r="M148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="Y148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="Y148" s="2"/>
       <c r="AG148" s="1"/>
     </row>
     <row r="149" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
       <c r="H149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
       <c r="M149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="Y149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="Y149" s="2"/>
       <c r="AG149" s="1"/>
     </row>
     <row r="150" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
       <c r="M150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="Y150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="Y150" s="2"/>
       <c r="AG150" s="1"/>
     </row>
     <row r="151" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
       <c r="M151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="Y151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="Y151" s="2"/>
       <c r="AG151" s="1"/>
     </row>
     <row r="152" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
       <c r="H152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
       <c r="M152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="Y152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="U152" s="2"/>
+      <c r="Y152" s="2"/>
       <c r="AG152" s="1"/>
     </row>
     <row r="153" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
       <c r="H153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
       <c r="M153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="Y153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="U153" s="2"/>
+      <c r="Y153" s="2"/>
       <c r="AG153" s="1"/>
     </row>
     <row r="154" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
       <c r="H154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
       <c r="M154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="U154" s="1"/>
-      <c r="Y154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="U154" s="2"/>
+      <c r="Y154" s="2"/>
       <c r="AG154" s="1"/>
     </row>
     <row r="155" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
       <c r="H155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
       <c r="M155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="Y155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="U155" s="2"/>
+      <c r="Y155" s="2"/>
       <c r="AG155" s="1"/>
     </row>
     <row r="156" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
       <c r="H156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
       <c r="M156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="Y156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="U156" s="2"/>
+      <c r="Y156" s="2"/>
       <c r="AG156" s="1"/>
     </row>
     <row r="157" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
       <c r="H157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
       <c r="M157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="Y157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="U157" s="2"/>
+      <c r="Y157" s="2"/>
       <c r="AG157" s="1"/>
     </row>
     <row r="158" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
       <c r="H158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
       <c r="M158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="Y158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="U158" s="2"/>
+      <c r="Y158" s="2"/>
       <c r="AG158" s="1"/>
     </row>
     <row r="159" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
       <c r="M159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="Y159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="U159" s="2"/>
+      <c r="Y159" s="2"/>
       <c r="AG159" s="1"/>
+    </row>
+    <row r="160" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="AG160" s="1"/>
+    </row>
+    <row r="161" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="AG161" s="1"/>
+    </row>
+    <row r="162" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="AG162" s="1"/>
+    </row>
+    <row r="163" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="AG163" s="1"/>
+    </row>
+    <row r="164" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="AG164" s="1"/>
+    </row>
+    <row r="165" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="AG165" s="1"/>
+    </row>
+    <row r="166" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="AG166" s="1"/>
+    </row>
+    <row r="167" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="AG167" s="1"/>
+    </row>
+    <row r="168" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="AG168" s="1"/>
+    </row>
+    <row r="169" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="AG169" s="1"/>
+    </row>
+    <row r="170" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="AG170" s="1"/>
+    </row>
+    <row r="171" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="AG171" s="1"/>
+    </row>
+    <row r="172" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="AG172" s="1"/>
+    </row>
+    <row r="173" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="AG173" s="1"/>
+    </row>
+    <row r="174" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="AG174" s="1"/>
+    </row>
+    <row r="175" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="AG175" s="1"/>
+    </row>
+    <row r="176" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="AG176" s="1"/>
+    </row>
+    <row r="177" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="AG177" s="1"/>
+    </row>
+    <row r="178" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="AG178" s="1"/>
+    </row>
+    <row r="179" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="AG179" s="1"/>
+    </row>
+    <row r="180" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="AG180" s="1"/>
+    </row>
+    <row r="181" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="AG181" s="1"/>
+    </row>
+    <row r="182" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="AG182" s="1"/>
+    </row>
+    <row r="183" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="AG183" s="1"/>
+    </row>
+    <row r="184" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="AG184" s="1"/>
+    </row>
+    <row r="185" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="AG185" s="1"/>
+    </row>
+    <row r="186" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="AG186" s="1"/>
+    </row>
+    <row r="187" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="AG187" s="1"/>
+    </row>
+    <row r="188" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="AG188" s="1"/>
+    </row>
+    <row r="189" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="AG189" s="1"/>
+    </row>
+    <row r="190" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="AG190" s="1"/>
+    </row>
+    <row r="191" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="AG191" s="1"/>
+    </row>
+    <row r="192" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="AG192" s="1"/>
+    </row>
+    <row r="193" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="AG193" s="1"/>
+    </row>
+    <row r="194" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="AG194" s="1"/>
+    </row>
+    <row r="195" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="AG195" s="1"/>
+    </row>
+    <row r="196" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="AG196" s="1"/>
+    </row>
+    <row r="197" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="AG197" s="1"/>
+    </row>
+    <row r="198" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="AG198" s="1"/>
+    </row>
+    <row r="199" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="AG199" s="1"/>
+    </row>
+    <row r="200" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="AG200" s="1"/>
+    </row>
+    <row r="201" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="AG201" s="1"/>
+    </row>
+    <row r="202" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="AG202" s="1"/>
+    </row>
+    <row r="203" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="AG203" s="1"/>
+    </row>
+    <row r="204" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="AG204" s="1"/>
+    </row>
+    <row r="205" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="AG205" s="1"/>
+    </row>
+    <row r="206" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="AG206" s="1"/>
+    </row>
+    <row r="207" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="AG207" s="1"/>
+    </row>
+    <row r="208" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="AG208" s="1"/>
+    </row>
+    <row r="209" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="AG209" s="1"/>
+    </row>
+    <row r="210" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="AG210" s="1"/>
+    </row>
+    <row r="211" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="AG211" s="1"/>
+    </row>
+    <row r="212" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="AG212" s="1"/>
+    </row>
+    <row r="213" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="AG213" s="1"/>
+    </row>
+    <row r="214" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="AG214" s="1"/>
+    </row>
+    <row r="215" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="AG215" s="1"/>
+    </row>
+    <row r="216" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="AG216" s="1"/>
+    </row>
+    <row r="217" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="AG217" s="1"/>
+    </row>
+    <row r="218" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="AG218" s="1"/>
+    </row>
+    <row r="219" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="AG219" s="1"/>
+    </row>
+    <row r="220" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="AG220" s="1"/>
+    </row>
+    <row r="221" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="AG221" s="1"/>
+    </row>
+    <row r="222" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="AG222" s="1"/>
+    </row>
+    <row r="223" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="AG223" s="1"/>
+    </row>
+    <row r="224" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="AG224" s="1"/>
+    </row>
+    <row r="225" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="AG225" s="1"/>
+    </row>
+    <row r="226" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="AG226" s="1"/>
+    </row>
+    <row r="227" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="AG227" s="1"/>
+    </row>
+    <row r="228" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="AG228" s="1"/>
+    </row>
+    <row r="229" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="AG229" s="1"/>
+    </row>
+    <row r="230" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="AG230" s="1"/>
+    </row>
+    <row r="231" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="AG231" s="1"/>
+    </row>
+    <row r="232" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="AG232" s="1"/>
+    </row>
+    <row r="233" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="AG233" s="1"/>
+    </row>
+    <row r="234" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="AG234" s="1"/>
+    </row>
+    <row r="235" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="AG235" s="1"/>
+    </row>
+    <row r="236" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="AG236" s="1"/>
+    </row>
+    <row r="237" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="AG237" s="1"/>
+    </row>
+    <row r="238" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="AG238" s="1"/>
+    </row>
+    <row r="239" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="AG239" s="1"/>
+    </row>
+    <row r="240" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="AG240" s="1"/>
+    </row>
+    <row r="241" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="AG241" s="1"/>
+    </row>
+    <row r="242" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
+    <row r="244" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="AG244" s="1"/>
+    </row>
+    <row r="245" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="AG245" s="1"/>
+    </row>
+    <row r="246" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="AG246" s="1"/>
+    </row>
+    <row r="247" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="AG247" s="1"/>
+    </row>
+    <row r="248" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="AG248" s="1"/>
+    </row>
+    <row r="249" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="AG249" s="1"/>
+    </row>
+    <row r="250" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="AG250" s="1"/>
+    </row>
+    <row r="251" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="AG251" s="1"/>
+    </row>
+    <row r="252" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="AG252" s="1"/>
+    </row>
+    <row r="253" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="AG253" s="1"/>
+    </row>
+    <row r="254" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="AG254" s="1"/>
+    </row>
+    <row r="255" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="AG255" s="1"/>
+    </row>
+    <row r="256" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="AG256" s="1"/>
+    </row>
+    <row r="257" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="AG257" s="1"/>
+    </row>
+    <row r="258" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="AG258" s="1"/>
+    </row>
+    <row r="259" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="AG259" s="1"/>
+    </row>
+    <row r="260" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="AG260" s="1"/>
+    </row>
+    <row r="261" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="AG261" s="1"/>
+    </row>
+    <row r="262" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="AG262" s="1"/>
+    </row>
+    <row r="263" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="AG263" s="1"/>
+    </row>
+    <row r="264" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="AG264" s="1"/>
+    </row>
+    <row r="265" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="AG265" s="1"/>
+    </row>
+    <row r="266" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="AG266" s="1"/>
+    </row>
+    <row r="267" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="AG267" s="1"/>
+    </row>
+    <row r="268" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="AG268" s="1"/>
+    </row>
+    <row r="269" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="AG269" s="1"/>
+    </row>
+    <row r="270" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="AG270" s="1"/>
+    </row>
+    <row r="271" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="AG271" s="1"/>
+    </row>
+    <row r="272" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="AG272" s="1"/>
+    </row>
+    <row r="273" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="AG273" s="1"/>
+    </row>
+    <row r="274" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="AG274" s="1"/>
+    </row>
+    <row r="275" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="AG275" s="1"/>
+    </row>
+    <row r="276" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="AG276" s="1"/>
+    </row>
+    <row r="277" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="AG277" s="1"/>
+    </row>
+    <row r="278" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="AG278" s="1"/>
+    </row>
+    <row r="279" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="AG279" s="1"/>
+    </row>
+    <row r="280" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="AG280" s="1"/>
+    </row>
+    <row r="281" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="AG281" s="1"/>
+    </row>
+    <row r="282" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="AG282" s="1"/>
+    </row>
+    <row r="283" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="AG283" s="1"/>
+    </row>
+    <row r="284" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="AG284" s="1"/>
+    </row>
+    <row r="285" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="AG285" s="1"/>
+    </row>
+    <row r="286" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="AG286" s="1"/>
+    </row>
+    <row r="287" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="AG287" s="1"/>
+    </row>
+    <row r="288" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="AG288" s="1"/>
+    </row>
+    <row r="289" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="AG289" s="1"/>
+    </row>
+    <row r="290" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="AG290" s="1"/>
+    </row>
+    <row r="291" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="AG291" s="1"/>
+    </row>
+    <row r="292" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="AG292" s="1"/>
+    </row>
+    <row r="293" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="AG293" s="1"/>
+    </row>
+    <row r="294" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="AG294" s="1"/>
+    </row>
+    <row r="295" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="AG295" s="1"/>
+    </row>
+    <row r="296" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="AG296" s="1"/>
+    </row>
+    <row r="297" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="AG297" s="1"/>
+    </row>
+    <row r="298" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="AG298" s="1"/>
+    </row>
+    <row r="299" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="AG299" s="1"/>
+    </row>
+    <row r="300" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="AG300" s="1"/>
+    </row>
+    <row r="301" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="AG301" s="1"/>
+    </row>
+    <row r="302" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="AG302" s="1"/>
+    </row>
+    <row r="303" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="AG303" s="1"/>
+    </row>
+    <row r="304" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="AG304" s="1"/>
+    </row>
+    <row r="305" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="AG305" s="1"/>
+    </row>
+    <row r="306" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="AG306" s="1"/>
+    </row>
+    <row r="307" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="AG307" s="1"/>
+    </row>
+    <row r="308" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="AG308" s="1"/>
+    </row>
+    <row r="309" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="AG309" s="1"/>
+    </row>
+    <row r="310" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="AG310" s="1"/>
+    </row>
+    <row r="311" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+      <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="AG311" s="1"/>
+    </row>
+    <row r="312" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="AG312" s="1"/>
+    </row>
+    <row r="313" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="AG313" s="1"/>
+    </row>
+    <row r="314" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="AG314" s="1"/>
+    </row>
+    <row r="315" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="AG315" s="1"/>
+    </row>
+    <row r="316" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
+      <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
+      <c r="AG316" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
